--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_0_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_0_square_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.8400000000006</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.286260152890463e-14</v>
+        <v>4.829470157119431e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>3.286260152890463e-14</v>
+        <v>4.829470157119431e-13</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>65.167090956755</v>
+        <v>52.54543715425431</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[52.376827226893155, 77.95735468661685]</t>
+          <t>[41.9470610247796, 63.14381328372902]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.298161660974074e-13</v>
+        <v>5.437872374614017e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>2.298161660974074e-13</v>
+        <v>5.437872374614017e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>1.62897396852804</v>
+        <v>1.566079220708426</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.402552876377424, 1.8553950606786564]</t>
+          <t>[1.3270791789938876, 1.8050792624229643]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>58.94487832021237</v>
+        <v>49.6360032884629</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[50.609054807782755, 67.28070183264198]</t>
+          <t>[42.37845452967621, 56.89355204724959]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>19.14074074074119</v>
+        <v>19.30930930930974</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.20956956956999</v>
+        <v>18.33097097097139</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.07191191191238</v>
+        <v>20.2876476476481</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.8400000000006</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.284838984678572e-13</v>
+        <v>2.851052727237402e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.284838984678572e-13</v>
+        <v>2.851052727237402e-13</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>56.9208208593735</v>
+        <v>56.51799847772477</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[43.83877209803501, 70.00286962071199]</t>
+          <t>[42.70785147740317, 70.32814547804638]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.742339688666107e-11</v>
+        <v>1.532345361709986e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>2.742339688666107e-11</v>
+        <v>1.532345361709986e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.239026532046425</v>
+        <v>1.17613178422681</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9748685912040402, 1.503184472888809]</t>
+          <t>[0.9245527929483472, 1.4277107755052736]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.995159675833747e-12</v>
+        <v>3.309352791802667e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>2.995159675833747e-12</v>
+        <v>3.309352791802667e-12</v>
       </c>
       <c r="T3" t="n">
-        <v>53.62853628420013</v>
+        <v>52.8119865629342</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.079503305950055, 61.177569262450206]</t>
+          <t>[45.29637261721898, 60.327600508649425]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>20.74442442442491</v>
+        <v>20.90554554554601</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.65805805805852</v>
+        <v>19.87571571571615</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.83079079079129</v>
+        <v>21.93537537537587</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.8400000000006</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.795374959812079e-11</v>
+        <v>7.069678176208072e-12</v>
       </c>
       <c r="I4" t="n">
-        <v>1.795374959812079e-11</v>
+        <v>7.069678176208072e-12</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>57.36435370797846</v>
+        <v>59.47036146263922</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[40.948961378137106, 73.77974603781982]</t>
+          <t>[43.085534949204494, 75.85518797607395]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>8.938684681325526e-09</v>
+        <v>3.538670245717412e-09</v>
       </c>
       <c r="O4" t="n">
-        <v>8.938684681325526e-09</v>
+        <v>3.538670245717412e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8113422468730391</v>
+        <v>0.6981317007977319</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.5346053564667308, 1.0880791372793475]</t>
+          <t>[0.40881586082750054, 0.9874475407679633]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.319682038733674e-07</v>
+        <v>1.463451314398512e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>4.319682038733674e-07</v>
+        <v>1.463451314398512e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>55.69673846542159</v>
+        <v>54.28332220433702</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[47.233216313862414, 64.16026061698076]</t>
+          <t>[45.82577892107593, 62.74086548759811]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X4" t="n">
-        <v>22.50330330330383</v>
+        <v>22.86222222222274</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.3652052052057</v>
+        <v>21.67791791791841</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.64140140140195</v>
+        <v>24.04652652652707</v>
       </c>
     </row>
     <row r="5">
@@ -839,53 +839,53 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.8400000000006</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.120525977034049e-14</v>
+        <v>2.394751064116463e-13</v>
       </c>
       <c r="I5" t="n">
-        <v>2.120525977034049e-14</v>
+        <v>2.394751064116463e-13</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>63.00753278400028</v>
+        <v>58.69092377310272</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.47712672382758, 76.53793884417297]</t>
+          <t>[45.5391832753797, 71.84266427082574]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.72346597998785e-12</v>
+        <v>1.316968756270853e-11</v>
       </c>
       <c r="O5" t="n">
-        <v>3.72346597998785e-12</v>
+        <v>1.316968756270853e-11</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3836579616996545</v>
+        <v>0.3207632138800394</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.15723686954903915, 0.6100790538502698]</t>
+          <t>[0.08176317216550011, 0.5597632555945786]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001369965683592156</v>
+        <v>0.009656747921369391</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001369965683592156</v>
+        <v>0.009656747921369391</v>
       </c>
       <c r="T5" t="n">
-        <v>56.70904903802122</v>
+        <v>56.58976503104024</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.33851526769815, 64.0795828083443]</t>
+          <t>[49.197500317642564, 63.98202974443791]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>24.26218218218274</v>
+        <v>24.40696696696752</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.33101101101155</v>
+        <v>23.42862862862916</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.19335335335393</v>
+        <v>25.38530530530588</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.8400000000006</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.953992523340276e-14</v>
+        <v>2.486510997101732e-11</v>
       </c>
       <c r="I6" t="n">
-        <v>1.953992523340276e-14</v>
+        <v>2.486510997101732e-11</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>61.6681404334113</v>
+        <v>54.9106333669156</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[50.160064618015014, 73.17621624880759]</t>
+          <t>[41.55523373252643, 68.26603300130478]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.507505479978136e-14</v>
+        <v>1.349176326215229e-10</v>
       </c>
       <c r="O6" t="n">
-        <v>4.507505479978136e-14</v>
+        <v>1.349176326215229e-10</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1006315965113851</v>
+        <v>-0.1257894956392311</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.28931583997023136, 0.08805264694746118]</t>
+          <t>[-0.37736848691769254, 0.12578949563923025]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.2884645552340559</v>
+        <v>0.3192945136149032</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2884645552340559</v>
+        <v>0.3192945136149032</v>
       </c>
       <c r="T6" t="n">
-        <v>53.84766150644927</v>
+        <v>53.53068780074351</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.57163858540139, 61.12368442749715]</t>
+          <t>[45.409125989735344, 61.652249611751685]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4138538538538619</v>
+        <v>0.5149149149149288</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3621221221221315</v>
+        <v>-0.5149149149149221</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.189829829829855</v>
+        <v>1.54474474474478</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.8400000000006</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.408073740411965e-13</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>2.408073740411965e-13</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>58.26658124146491</v>
+        <v>54.15146002750111</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[43.12064942524724, 73.41251305768257]</t>
+          <t>[41.143159910163064, 67.15976014483915]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>8.033254061956541e-10</v>
+        <v>9.570189085650327e-11</v>
       </c>
       <c r="O7" t="n">
-        <v>8.033254061956541e-10</v>
+        <v>9.570189085650327e-11</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.6037895790683088</v>
+        <v>-0.4905790329930007</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.8679475199106932, -0.33963163822592435]</t>
+          <t>[-0.7170001251436169, -0.2641579408423844]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.398428029055545e-05</v>
+        <v>7.382293980140453e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>3.398428029055545e-05</v>
+        <v>7.382293980140453e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>58.21795803149887</v>
+        <v>53.42897010038467</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[50.51294813237986, 65.92296793061789]</t>
+          <t>[46.565700409605746, 60.2922397911636]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.483123123123182</v>
+        <v>2.008168168168215</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.396756756756793</v>
+        <v>1.081321321321345</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.569489489489571</v>
+        <v>2.935015015015085</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.8400000000006</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.488320743372242e-13</v>
+        <v>1.110223024625157e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>3.488320743372242e-13</v>
+        <v>1.110223024625157e-14</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>53.06920285589582</v>
+        <v>57.39962132096292</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[39.12075104948828, 67.01765466230337]</t>
+          <t>[44.01358064792052, 70.78566199400532]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.07120490255852e-09</v>
+        <v>4.161093691834594e-11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.07120490255852e-09</v>
+        <v>4.161093691834594e-11</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.05663176336954</v>
+        <v>-0.9937370155499243</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.3207897042119257, -0.792473822527155]</t>
+          <t>[-1.2327370572644627, -0.754736973835386]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.853726144280699e-10</v>
+        <v>9.891532037897832e-11</v>
       </c>
       <c r="S8" t="n">
-        <v>2.853726144280699e-10</v>
+        <v>9.891532037897832e-11</v>
       </c>
       <c r="T8" t="n">
-        <v>50.70616458247464</v>
+        <v>51.56772176347614</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[43.41749719422348, 57.994831970725805]</t>
+          <t>[44.504738535611835, 58.63070499134044]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>4.345465465465566</v>
+        <v>4.067827827827919</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.259099099099172</v>
+        <v>3.089489489489561</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.431831831831959</v>
+        <v>5.046166166166278</v>
       </c>
     </row>
     <row r="9">
@@ -1183,53 +1183,53 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.91000000000045</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.114663916723657e-13</v>
+        <v>1.867250798426312e-11</v>
       </c>
       <c r="I9" t="n">
-        <v>1.114663916723657e-13</v>
+        <v>1.867250798426312e-11</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>57.73654841023436</v>
+        <v>50.58423657308949</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[45.95480189970317, 69.51829492076554]</t>
+          <t>[37.22764638409616, 63.94082676208282]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7.818190539410352e-13</v>
+        <v>1.206297506328724e-09</v>
       </c>
       <c r="O9" t="n">
-        <v>7.818190539410352e-13</v>
+        <v>1.206297506328724e-09</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.42142130072331</v>
+        <v>-1.333368653775848</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.6730002920017721, -1.1698423094448476]</t>
+          <t>[-1.6226844937460783, -1.0440528138056173]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>7.771561172376096e-15</v>
+        <v>5.081712828314267e-12</v>
       </c>
       <c r="S9" t="n">
-        <v>7.771561172376096e-15</v>
+        <v>5.081712828314267e-12</v>
       </c>
       <c r="T9" t="n">
-        <v>55.92440955937331</v>
+        <v>53.30481448996535</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[48.405599248605256, 63.44321987014136]</t>
+          <t>[45.56304540529881, 61.04658357463188]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>5.6352952952954</v>
+        <v>5.288328328328422</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.637897897897982</v>
+        <v>4.140860860860936</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.632692692692817</v>
+        <v>6.435795795795908</v>
       </c>
     </row>
     <row r="10">
@@ -1269,53 +1269,53 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.91000000000045</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.954037180482374e-12</v>
+        <v>3.885780586188048e-15</v>
       </c>
       <c r="I10" t="n">
-        <v>4.954037180482374e-12</v>
+        <v>3.885780586188048e-15</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>59.66249451202533</v>
+        <v>59.05643115880086</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[45.63367558200093, 73.69131344204973]</t>
+          <t>[48.39271904303304, 69.72014327456868]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>5.254685575550866e-11</v>
+        <v>1.509903313490213e-14</v>
       </c>
       <c r="O10" t="n">
-        <v>5.254685575550866e-11</v>
+        <v>1.509903313490213e-14</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.408842351159387</v>
+        <v>-1.471737098979002</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.6855792415656952, -1.1321054607530785]</t>
+          <t>[-1.6730002920017712, -1.2704739059562327]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.360334150353083e-13</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2.360334150353083e-13</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>56.39488163429098</v>
+        <v>52.19867591157025</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[47.65561819566519, 65.13414507291677]</t>
+          <t>[45.24004930515436, 59.15730251798614]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>5.585425425425527</v>
+        <v>5.837117117117224</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.488288288288368</v>
+        <v>5.038878878878972</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.682562562562685</v>
+        <v>6.635355355355475</v>
       </c>
     </row>
     <row r="11">
@@ -1355,53 +1355,53 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.91000000000045</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.093636292637257e-11</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I11" t="n">
-        <v>1.093636292637257e-11</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>53.21155443223368</v>
+        <v>59.97471461119393</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[40.58363325693121, 65.83947560753616]</t>
+          <t>[50.627895784562895, 69.32153343782497]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>6.812883590612273e-11</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O11" t="n">
-        <v>6.812883590612273e-11</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.710737140693541</v>
+        <v>-1.647842392873925</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.9874740310998495, -1.4340002502872329]</t>
+          <t>[-1.8239476867688484, -1.471737098979002]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>57.62842489264053</v>
+        <v>56.16150624903397</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[49.649391844191044, 65.60745794109002]</t>
+          <t>[50.05070573613799, 62.27230676192995]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.78230230230243</v>
+        <v>6.535575575575695</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.685165165165271</v>
+        <v>5.837117117117224</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.879439439439588</v>
+        <v>7.234034034034166</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_0_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_0_square_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.72000000000058</v>
+        <v>25.77000000000059</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.829470157119431e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I2" t="n">
-        <v>4.829470157119431e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>52.54543715425431</v>
+        <v>64.27413998100863</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[41.9470610247796, 63.14381328372902]</t>
+          <t>[54.414116843723306, 74.13416311829396]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>5.437872374614017e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.437872374614017e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>1.566079220708426</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3270791789938876, 1.8050792624229643]</t>
+          <t>[1.3773949772495788, 1.7547634641672731]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>49.6360032884629</v>
+        <v>57.54176878348173</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.37845452967621, 56.89355204724959]</t>
+          <t>[50.63664565752071, 64.44689190944274]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>19.30930930930974</v>
+        <v>19.34684684684728</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.33097097097139</v>
+        <v>18.57297297297339</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.2876476476481</v>
+        <v>20.12072072072118</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.72000000000058</v>
+        <v>25.77000000000059</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.851052727237402e-13</v>
+        <v>5.129230373768223e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.851052727237402e-13</v>
+        <v>5.129230373768223e-14</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>56.51799847772477</v>
+        <v>56.70435486160751</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[42.70785147740317, 70.32814547804638]</t>
+          <t>[43.622018585781746, 69.78669113743327]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.532345361709986e-10</v>
+        <v>3.060907083352049e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.532345361709986e-10</v>
+        <v>3.060907083352049e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>1.17613178422681</v>
+        <v>1.13839493553504</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9245527929483472, 1.4277107755052736]</t>
+          <t>[0.8993948938205003, 1.3773949772495788]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.309352791802667e-12</v>
+        <v>1.877165090036215e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>3.309352791802667e-12</v>
+        <v>1.877165090036215e-12</v>
       </c>
       <c r="T3" t="n">
-        <v>52.8119865629342</v>
+        <v>53.3328240590062</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[45.29637261721898, 60.327600508649425]</t>
+          <t>[46.19897736939694, 60.466670748615456]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>20.90554554554601</v>
+        <v>21.10096096096144</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.87571571571615</v>
+        <v>20.12072072072118</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.93537537537587</v>
+        <v>22.08120120120171</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.72000000000058</v>
+        <v>25.77000000000059</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>7.069678176208072e-12</v>
+        <v>3.97504251736791e-12</v>
       </c>
       <c r="I4" t="n">
-        <v>7.069678176208072e-12</v>
+        <v>3.97504251736791e-12</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>59.47036146263922</v>
+        <v>56.09913586328275</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[43.085534949204494, 75.85518797607395]</t>
+          <t>[40.79346259690193, 71.40480912966356]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.538670245717412e-09</v>
+        <v>2.772572393894279e-09</v>
       </c>
       <c r="O4" t="n">
-        <v>3.538670245717412e-09</v>
+        <v>2.772572393894279e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6981317007977319</v>
+        <v>0.761026448617347</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.40881586082750054, 0.9874475407679633]</t>
+          <t>[0.4968685077749617, 1.0251843894597323]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.463451314398512e-05</v>
+        <v>6.126995173438843e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>1.463451314398512e-05</v>
+        <v>6.126995173438843e-07</v>
       </c>
       <c r="T4" t="n">
-        <v>54.28332220433702</v>
+        <v>55.50930662605074</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[45.82577892107593, 62.74086548759811]</t>
+          <t>[47.65742208441252, 63.36119116768897]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>22.86222222222274</v>
+        <v>22.64870870870923</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.67791791791841</v>
+        <v>21.56528528528578</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.04652652652707</v>
+        <v>23.73213213213268</v>
       </c>
     </row>
     <row r="5">
@@ -839,53 +839,53 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.72000000000058</v>
+        <v>25.77000000000059</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.394751064116463e-13</v>
+        <v>4.399924868891958e-12</v>
       </c>
       <c r="I5" t="n">
-        <v>2.394751064116463e-13</v>
+        <v>4.399924868891958e-12</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>58.69092377310272</v>
+        <v>58.94409099838791</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[45.5391832753797, 71.84266427082574]</t>
+          <t>[44.493555876014824, 73.39462612076099]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.316968756270853e-11</v>
+        <v>1.677289418466898e-10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.316968756270853e-11</v>
+        <v>1.677289418466898e-10</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3207632138800394</v>
+        <v>0.2704474156243464</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.08176317216550011, 0.5597632555945786]</t>
+          <t>[0.018868424345884094, 0.5220264069028087]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.009656747921369391</v>
+        <v>0.03571604441027909</v>
       </c>
       <c r="S5" t="n">
-        <v>0.009656747921369391</v>
+        <v>0.03571604441027909</v>
       </c>
       <c r="T5" t="n">
-        <v>56.58976503104024</v>
+        <v>54.02437511061092</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.197500317642564, 63.98202974443791]</t>
+          <t>[45.88997043990504, 62.158779781316795]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>24.40696696696752</v>
+        <v>24.66078078078134</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.42862862862916</v>
+        <v>23.62894894894949</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.38530530530588</v>
+        <v>25.6926126126132</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.72000000000058</v>
+        <v>25.77000000000059</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.486510997101732e-11</v>
+        <v>1.042721464727947e-12</v>
       </c>
       <c r="I6" t="n">
-        <v>2.486510997101732e-11</v>
+        <v>1.042721464727947e-12</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>54.9106333669156</v>
+        <v>61.40428400821376</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[41.55523373252643, 68.26603300130478]</t>
+          <t>[47.49408092001245, 75.31448709641508]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.349176326215229e-10</v>
+        <v>1.807687333155172e-11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.349176326215229e-10</v>
+        <v>1.807687333155172e-11</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1257894956392311</v>
+        <v>-0.1383684452031542</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.37736848691769254, 0.12578949563923025]</t>
+          <t>[-0.37736848691769254, 0.1006315965113842]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.3192945136149032</v>
+        <v>0.24973333819303</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3192945136149032</v>
+        <v>0.24973333819303</v>
       </c>
       <c r="T6" t="n">
-        <v>53.53068780074351</v>
+        <v>60.1306319975055</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.409125989735344, 61.652249611751685]</t>
+          <t>[51.928023447021715, 68.33324054798928]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5149149149149288</v>
+        <v>0.5675075075075213</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.5149149149149221</v>
+        <v>-0.4127327327327396</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.54474474474478</v>
+        <v>1.547747747747782</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.72000000000058</v>
+        <v>25.77000000000059</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>3.578470852971805e-12</v>
       </c>
       <c r="I7" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>3.578470852971805e-12</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>54.15146002750111</v>
+        <v>59.76004401425228</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[41.143159910163064, 67.15976014483915]</t>
+          <t>[42.92693355547188, 76.59315447303268]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>9.570189085650327e-11</v>
+        <v>6.10104677889467e-09</v>
       </c>
       <c r="O7" t="n">
-        <v>9.570189085650327e-11</v>
+        <v>6.10104677889467e-09</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.4905790329930007</v>
+        <v>-0.6415264277600778</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.7170001251436169, -0.2641579408423844]</t>
+          <t>[-0.9056843686024632, -0.37736848691769254]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>7.382293980140453e-05</v>
+        <v>1.319511045672073e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>7.382293980140453e-05</v>
+        <v>1.319511045672073e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>53.42897010038467</v>
+        <v>55.49983879218073</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.565700409605746, 60.2922397911636]</t>
+          <t>[46.88727762353662, 64.11239996082485]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.008168168168215</v>
+        <v>2.631171171171228</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.081321321321345</v>
+        <v>1.547747747747779</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.935015015015085</v>
+        <v>3.714594594594678</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.72000000000058</v>
+        <v>25.77000000000059</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.110223024625157e-14</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="I8" t="n">
-        <v>1.110223024625157e-14</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>57.39962132096292</v>
+        <v>59.68683531852864</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[44.01358064792052, 70.78566199400532]</t>
+          <t>[47.25741616787147, 72.11625446918582]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.161093691834594e-11</v>
+        <v>1.463495991060881e-12</v>
       </c>
       <c r="O8" t="n">
-        <v>4.161093691834594e-11</v>
+        <v>1.463495991060881e-12</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.9937370155499243</v>
+        <v>-0.9685791164220783</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.2327370572644627, -0.754736973835386]</t>
+          <t>[-1.1824212590087706, -0.754736973835386]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>9.891532037897832e-11</v>
+        <v>8.5096374391469e-12</v>
       </c>
       <c r="S8" t="n">
-        <v>9.891532037897832e-11</v>
+        <v>8.5096374391469e-12</v>
       </c>
       <c r="T8" t="n">
-        <v>51.56772176347614</v>
+        <v>52.94923859225946</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.504738535611835, 58.63070499134044]</t>
+          <t>[46.32487336180824, 59.57360382271069]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>4.067827827827919</v>
+        <v>3.972552552552642</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.089489489489561</v>
+        <v>3.095495495495566</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.046166166166278</v>
+        <v>4.849609609609718</v>
       </c>
     </row>
     <row r="9">
@@ -1183,53 +1183,53 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.92000000000046</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.867250798426312e-11</v>
+        <v>4.440892098500626e-15</v>
       </c>
       <c r="I9" t="n">
-        <v>1.867250798426312e-11</v>
+        <v>4.440892098500626e-15</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>50.58423657308949</v>
+        <v>58.80070269887744</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[37.22764638409616, 63.94082676208282]</t>
+          <t>[46.915212298560675, 70.6861930991942]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.206297506328724e-09</v>
+        <v>5.81534820298657e-13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.206297506328724e-09</v>
+        <v>5.81534820298657e-13</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.333368653775848</v>
+        <v>-1.345947603339772</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.6226844937460783, -1.0440528138056173]</t>
+          <t>[-1.559789745926465, -1.1321054607530785]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>5.081712828314267e-12</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S9" t="n">
-        <v>5.081712828314267e-12</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T9" t="n">
-        <v>53.30481448996535</v>
+        <v>51.92012291763251</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.56304540529881, 61.04658357463188]</t>
+          <t>[44.980217645297955, 58.86002818996707]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>5.288328328328422</v>
+        <v>5.308228228228323</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.140860860860936</v>
+        <v>4.464864864864943</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.435795795795908</v>
+        <v>6.151591591591703</v>
       </c>
     </row>
     <row r="10">
@@ -1269,53 +1269,53 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.92000000000046</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.885780586188048e-15</v>
+        <v>1.244004899092488e-12</v>
       </c>
       <c r="I10" t="n">
-        <v>3.885780586188048e-15</v>
+        <v>1.244004899092488e-12</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>59.05643115880086</v>
+        <v>54.72204165480514</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[48.39271904303304, 69.72014327456868]</t>
+          <t>[42.92972943386299, 66.51435387574729]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.509903313490213e-14</v>
+        <v>4.136246900543483e-12</v>
       </c>
       <c r="O10" t="n">
-        <v>1.509903313490213e-14</v>
+        <v>4.136246900543483e-12</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.471737098979002</v>
+        <v>-1.459158149415079</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.6730002920017712, -1.2704739059562327]</t>
+          <t>[-1.7107371406935403, -1.2075791581366175]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="T10" t="n">
-        <v>52.19867591157025</v>
+        <v>51.11035789272315</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.24004930515436, 59.15730251798614]</t>
+          <t>[43.45613759672514, 58.76457818872116]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>5.837117117117224</v>
+        <v>5.754714714714815</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.038878878878972</v>
+        <v>4.762522522522608</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.635355355355475</v>
+        <v>6.746906906907022</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.92000000000046</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.074540622094446e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.074540622094446e-12</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>59.97471461119393</v>
+        <v>56.07993689527216</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[50.627895784562895, 69.32153343782497]</t>
+          <t>[43.4789961535994, 68.68087763694493]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.426037066210029e-11</v>
       </c>
       <c r="O11" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.426037066210029e-11</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.647842392873925</v>
+        <v>-1.635263443310002</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.8239476867688484, -1.471737098979002]</t>
+          <t>[-1.8742634850245414, -1.396263401595463]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,11 +1397,11 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>56.16150624903397</v>
+        <v>53.38938176282695</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[50.05070573613799, 62.27230676192995]</t>
+          <t>[45.330171120770565, 61.448592404883335]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.535575575575695</v>
+        <v>6.449249249249362</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.837117117117224</v>
+        <v>5.506666666666762</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.234034034034166</v>
+        <v>7.391831831831963</v>
       </c>
     </row>
   </sheetData>
